--- a/Story/3 - Psyche Deepdive/2 - Sculpted Like a Song/Sculpted Like a Song.xlsx
+++ b/Story/3 - Psyche Deepdive/2 - Sculpted Like a Song/Sculpted Like a Song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\2 - Sculpted Like a Song\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537F3F9-1523-4ABD-AF2E-E88DCB616CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DD94A-05FB-40FD-97C4-ADAC545845C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{D1D60E1A-41C3-468E-9545-62404FF9FCE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D1D60E1A-41C3-468E-9545-62404FF9FCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sanga Deepdive" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="4585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="4586">
   <si>
     <t>Tôi đã hứa với cậu rồi.</t>
   </si>
@@ -13435,9 +13435,6 @@
     <t>歌のような彫刻</t>
   </si>
   <si>
-    <t>노래 같은 조각</t>
-  </si>
-  <si>
     <t>Comme une sculpture chantante</t>
   </si>
   <si>
@@ -13478,9 +13475,6 @@
   </si>
   <si>
     <t>侍女カミ耶は五歳の時に小姐さんの前に連れてこられた。\n さんは彫刻のように美しく、遠くにいるようだった。彼女は日光に向かってカミ耶にほほえみかけた。\n その日から、カミ耶は願いを胸に誓った：私たちは永遠に一緒にいよう。</t>
-  </si>
-  <si>
-    <t>시녀 카미예는 5살 때 양반님 산의 앞에 데려가졌습니다. \n 산은 조각상처럼 아름답고 가까우면서도 먼 존재였습니다. 그녀는 햇빛을 받으며 카미예에게 미소를 지었습니다. \n 그날부터 카미예는 소원을 품었습니다: 우리는 영원히 함께 있을 것입니다.</t>
   </si>
   <si>
     <t>La servante Camille a été conduite devant Mademoiselle Sanga à l'âge de cinq ans.\n Sanga était d'une beauté sculpturale, à la fois proche et distante. Elle souriait à Camille à la lumière du soleil.\n Depuis ce jour, Camille a formulé un souhait : nous serons toujours ensemble</t>
@@ -13854,13 +13848,22 @@
   </si>
   <si>
     <t>Stage_20089_Name</t>
+  </si>
+  <si>
+    <t>노래처럼 조각된</t>
+  </si>
+  <si>
+    <t>시녀 카미유는 5살 때 산의 앞으로 데려가졌다. \n 산은 조각상처럼 아름다웠고, 가까우면서도 먼 존재였다. 그녀는 햇빛을 받으며 카미유에게 미소를 지었다. \n 그날부터 카미유는 소원을 가지게 되었다: 그녀와 영원히 함께하는 것.</t>
+  </si>
+  <si>
+    <t>시녀 카미유는 5살 때부터 산의 시중을 들게 되었다. \n 산은 조각상처럼 아름다웠고, 가까우면서도 먼 존재였다. 그녀는 햇빛을 받으며 카미유에게 미소를 지었다. \n 그날부터 카미유는 소원을 가지게 되었다: 그녀와 영원히 함께하는 것.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13882,6 +13885,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -13907,10 +13916,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13924,9 +13934,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{88659DF9-6E0F-442E-8845-B6E83799AF2A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14142,7 +14156,7 @@
   <dimension ref="A1:S381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M1" sqref="M1:M381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14240,34 +14254,34 @@
       <c r="L2" t="s">
         <v>4444</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>4583</v>
+      </c>
+      <c r="N2" t="s">
         <v>4445</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4446</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4447</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>4448</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4449</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4450</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4451</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B3" t="s">
         <v>4452</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4453</v>
       </c>
       <c r="C3" t="s">
         <v>4437</v>
@@ -14279,51 +14293,51 @@
         <v>4438</v>
       </c>
       <c r="F3" t="s">
+        <v>4453</v>
+      </c>
+      <c r="H3" t="s">
         <v>4454</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4455</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4456</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4457</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>4458</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>4584</v>
+      </c>
+      <c r="N3" t="s">
         <v>4459</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>4460</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>4461</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>4462</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>4463</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>4464</v>
-      </c>
-      <c r="R3" t="s">
-        <v>4465</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="B4" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="C4" t="s">
         <v>4437</v>
@@ -14335,51 +14349,51 @@
         <v>4438</v>
       </c>
       <c r="F4" t="s">
+        <v>4467</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4468</v>
+      </c>
+      <c r="I4" t="s">
         <v>4469</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>4470</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>4471</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>4472</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>4473</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>4474</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>4475</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>4476</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>4477</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>4478</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>4479</v>
-      </c>
-      <c r="R4" t="s">
-        <v>4480</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4481</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4482</v>
+        <v>4480</v>
       </c>
       <c r="B5" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
       <c r="C5" t="s">
         <v>4437</v>
@@ -14408,34 +14422,34 @@
       <c r="L5" t="s">
         <v>4444</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>4583</v>
+      </c>
+      <c r="N5" t="s">
         <v>4445</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>4446</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>4447</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>4448</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>4449</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>4450</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4451</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="B6" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="C6" t="s">
         <v>4437</v>
@@ -14447,51 +14461,51 @@
         <v>4438</v>
       </c>
       <c r="F6" t="s">
+        <v>4453</v>
+      </c>
+      <c r="H6" t="s">
         <v>4454</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>4455</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>4456</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>4457</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>4458</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>4585</v>
+      </c>
+      <c r="N6" t="s">
         <v>4459</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>4460</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>4461</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>4462</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>4463</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>4464</v>
-      </c>
-      <c r="R6" t="s">
-        <v>4465</v>
-      </c>
-      <c r="S6" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="B7" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
       <c r="C7" t="s">
         <v>4437</v>
@@ -14503,51 +14517,51 @@
         <v>4438</v>
       </c>
       <c r="F7" t="s">
+        <v>4467</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4468</v>
+      </c>
+      <c r="I7" t="s">
         <v>4469</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>4470</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>4471</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>4472</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="5" t="s">
         <v>4473</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>4474</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>4475</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>4476</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>4477</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>4478</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>4479</v>
-      </c>
-      <c r="R7" t="s">
-        <v>4480</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4481</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
       <c r="B8" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
       <c r="C8" t="s">
         <v>4437</v>
@@ -14576,34 +14590,34 @@
       <c r="L8" t="s">
         <v>4444</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
+        <v>4583</v>
+      </c>
+      <c r="N8" t="s">
         <v>4445</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>4446</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>4447</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>4448</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>4449</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>4450</v>
-      </c>
-      <c r="S8" t="s">
-        <v>4451</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4490</v>
+        <v>4488</v>
       </c>
       <c r="B9" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
       <c r="C9" t="s">
         <v>4437</v>
@@ -14615,51 +14629,51 @@
         <v>4438</v>
       </c>
       <c r="F9" t="s">
+        <v>4453</v>
+      </c>
+      <c r="H9" t="s">
         <v>4454</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>4455</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>4456</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>4457</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>4458</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>4585</v>
+      </c>
+      <c r="N9" t="s">
         <v>4459</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>4460</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>4461</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>4462</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>4463</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>4464</v>
-      </c>
-      <c r="R9" t="s">
-        <v>4465</v>
-      </c>
-      <c r="S9" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="B10" t="s">
-        <v>4493</v>
+        <v>4491</v>
       </c>
       <c r="C10" t="s">
         <v>4437</v>
@@ -14671,73 +14685,73 @@
         <v>4438</v>
       </c>
       <c r="F10" t="s">
+        <v>4467</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4468</v>
+      </c>
+      <c r="I10" t="s">
         <v>4469</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>4470</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>4471</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>4472</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="5" t="s">
         <v>4473</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>4474</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>4475</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>4476</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>4477</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>4478</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>4479</v>
-      </c>
-      <c r="R10" t="s">
-        <v>4480</v>
-      </c>
-      <c r="S10" t="s">
-        <v>4481</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4513</v>
+        <v>4511</v>
       </c>
       <c r="B12" t="s">
-        <v>4514</v>
+        <v>4512</v>
       </c>
       <c r="C12" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D12">
         <v>1681</v>
       </c>
       <c r="E12" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F12" t="s">
         <v>4439</v>
       </c>
       <c r="H12" t="s">
+        <v>4513</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4514</v>
+      </c>
+      <c r="J12" t="s">
         <v>4515</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4516</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4517</v>
       </c>
       <c r="K12" t="s">
         <v>4410</v>
@@ -14749,7 +14763,7 @@
         <v>4408</v>
       </c>
       <c r="N12" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="O12" t="s">
         <v>4406</v>
@@ -14758,98 +14772,98 @@
         <v>4405</v>
       </c>
       <c r="Q12" t="s">
+        <v>4517</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4518</v>
+      </c>
+      <c r="S12" t="s">
         <v>4519</v>
-      </c>
-      <c r="R12" t="s">
-        <v>4520</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="B13" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="C13" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D13">
         <v>1681</v>
       </c>
       <c r="E13" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F13" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H13" t="s">
+        <v>4522</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4523</v>
+      </c>
+      <c r="J13" t="s">
         <v>4524</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>4525</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>4526</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>4527</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>4528</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>4529</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>4530</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>4531</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>4532</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>4533</v>
-      </c>
-      <c r="R13" t="s">
-        <v>4534</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="B14" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="C14" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D14">
         <v>1685</v>
       </c>
       <c r="E14" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F14" t="s">
         <v>4439</v>
       </c>
       <c r="H14" t="s">
+        <v>4513</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4514</v>
+      </c>
+      <c r="J14" t="s">
         <v>4515</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4516</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4517</v>
       </c>
       <c r="K14" t="s">
         <v>4410</v>
@@ -14861,7 +14875,7 @@
         <v>4408</v>
       </c>
       <c r="N14" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="O14" t="s">
         <v>4406</v>
@@ -14870,98 +14884,98 @@
         <v>4405</v>
       </c>
       <c r="Q14" t="s">
+        <v>4517</v>
+      </c>
+      <c r="R14" t="s">
+        <v>4518</v>
+      </c>
+      <c r="S14" t="s">
         <v>4519</v>
-      </c>
-      <c r="R14" t="s">
-        <v>4520</v>
-      </c>
-      <c r="S14" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="B15" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="C15" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D15">
         <v>1685</v>
       </c>
       <c r="E15" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F15" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H15" t="s">
+        <v>4522</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4523</v>
+      </c>
+      <c r="J15" t="s">
         <v>4524</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>4525</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>4526</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>4527</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>4528</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>4529</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>4530</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>4531</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>4532</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>4533</v>
-      </c>
-      <c r="R15" t="s">
-        <v>4534</v>
-      </c>
-      <c r="S15" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="B16" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="C16" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D16">
         <v>1687</v>
       </c>
       <c r="E16" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F16" t="s">
         <v>4439</v>
       </c>
       <c r="H16" t="s">
+        <v>4513</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4514</v>
+      </c>
+      <c r="J16" t="s">
         <v>4515</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4516</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4517</v>
       </c>
       <c r="K16" t="s">
         <v>4410</v>
@@ -14973,7 +14987,7 @@
         <v>4408</v>
       </c>
       <c r="N16" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="O16" t="s">
         <v>4406</v>
@@ -14982,69 +14996,69 @@
         <v>4405</v>
       </c>
       <c r="Q16" t="s">
+        <v>4517</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4518</v>
+      </c>
+      <c r="S16" t="s">
         <v>4519</v>
-      </c>
-      <c r="R16" t="s">
-        <v>4520</v>
-      </c>
-      <c r="S16" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="B17" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="C17" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D17">
         <v>1687</v>
       </c>
       <c r="E17" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F17" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H17" t="s">
+        <v>4522</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4523</v>
+      </c>
+      <c r="J17" t="s">
         <v>4524</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>4525</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>4526</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>4527</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>4528</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>4529</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>4530</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>4531</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>4532</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>4533</v>
-      </c>
-      <c r="R17" t="s">
-        <v>4534</v>
-      </c>
-      <c r="S17" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20449,19 +20463,19 @@
     </row>
     <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C113" t="s">
         <v>4494</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4495</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4496</v>
       </c>
       <c r="D113">
         <v>1682</v>
       </c>
       <c r="E113" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F113" t="s">
         <v>4439</v>
@@ -20470,7 +20484,7 @@
         <v>3214</v>
       </c>
       <c r="I113" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="J113" t="s">
         <v>3212</v>
@@ -20505,58 +20519,58 @@
     </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="B114" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="C114" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D114">
         <v>1682</v>
       </c>
       <c r="E114" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F114" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H114" t="s">
+        <v>4499</v>
+      </c>
+      <c r="I114" t="s">
+        <v>4500</v>
+      </c>
+      <c r="J114" t="s">
         <v>4501</v>
       </c>
-      <c r="I114" t="s">
+      <c r="K114" t="s">
         <v>4502</v>
       </c>
-      <c r="J114" t="s">
+      <c r="L114" t="s">
         <v>4503</v>
       </c>
-      <c r="K114" t="s">
+      <c r="M114" t="s">
         <v>4504</v>
       </c>
-      <c r="L114" t="s">
+      <c r="N114" t="s">
         <v>4505</v>
       </c>
-      <c r="M114" t="s">
+      <c r="O114" t="s">
         <v>4506</v>
       </c>
-      <c r="N114" t="s">
+      <c r="P114" t="s">
         <v>4507</v>
       </c>
-      <c r="O114" t="s">
+      <c r="Q114" t="s">
         <v>4508</v>
       </c>
-      <c r="P114" t="s">
+      <c r="R114" t="s">
         <v>4509</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="S114" t="s">
         <v>4510</v>
-      </c>
-      <c r="R114" t="s">
-        <v>4511</v>
-      </c>
-      <c r="S114" t="s">
-        <v>4512</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25600,19 +25614,19 @@
     </row>
     <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="B203" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="C203" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D203">
         <v>1683</v>
       </c>
       <c r="E203" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F203" t="s">
         <v>4439</v>
@@ -25621,7 +25635,7 @@
         <v>2174</v>
       </c>
       <c r="I203" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="J203" t="s">
         <v>2172</v>
@@ -25632,7 +25646,7 @@
       <c r="L203" t="s">
         <v>2170</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203" s="5" t="s">
         <v>2169</v>
       </c>
       <c r="N203" t="s">
@@ -25656,75 +25670,75 @@
     </row>
     <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="B204" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="C204" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D204">
         <v>1683</v>
       </c>
       <c r="E204" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F204" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H204" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="I204" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="J204" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="K204" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="L204" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="M204" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="N204" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="O204" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="P204" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="Q204" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="R204" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="S204" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="B205" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="C205" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D205">
         <v>1686</v>
       </c>
       <c r="E205" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F205" t="s">
         <v>4439</v>
@@ -25733,7 +25747,7 @@
         <v>2174</v>
       </c>
       <c r="I205" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="J205" t="s">
         <v>2172</v>
@@ -25744,7 +25758,7 @@
       <c r="L205" t="s">
         <v>2170</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205" s="5" t="s">
         <v>2169</v>
       </c>
       <c r="N205" t="s">
@@ -25768,75 +25782,75 @@
     </row>
     <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="B206" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="C206" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D206">
         <v>1686</v>
       </c>
       <c r="E206" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F206" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H206" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="I206" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="J206" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="K206" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="L206" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="M206" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="N206" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="O206" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="P206" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="Q206" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="R206" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="S206" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="B207" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="C207" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D207">
         <v>1688</v>
       </c>
       <c r="E207" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F207" t="s">
         <v>4439</v>
@@ -25845,7 +25859,7 @@
         <v>2174</v>
       </c>
       <c r="I207" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="J207" t="s">
         <v>2172</v>
@@ -25856,7 +25870,7 @@
       <c r="L207" t="s">
         <v>2170</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207" s="5" t="s">
         <v>2169</v>
       </c>
       <c r="N207" t="s">
@@ -25880,58 +25894,58 @@
     </row>
     <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="B208" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="C208" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D208">
         <v>1688</v>
       </c>
       <c r="E208" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F208" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H208" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="I208" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="J208" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="K208" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="L208" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="M208" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="N208" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="O208" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="P208" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="Q208" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="R208" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="S208" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="209" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30680,19 +30694,19 @@
     </row>
     <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
       <c r="B293" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="C293" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D293">
         <v>1684</v>
       </c>
       <c r="E293" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F293" t="s">
         <v>4439</v>
@@ -30736,58 +30750,58 @@
     </row>
     <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="B294" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="C294" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="D294">
         <v>1684</v>
       </c>
       <c r="E294" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="F294" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H294" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="I294" t="s">
-        <v>4579</v>
+        <v>4577</v>
       </c>
       <c r="J294" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="K294" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="L294" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="M294" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="N294" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="O294" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="P294" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="Q294" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="R294" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="S294" t="s">
-        <v>4569</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="295" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
